--- a/server/src/main/resources/templates/template-dict-type.xlsx
+++ b/server/src/main/resources/templates/template-dict-type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60CD022-0FEA-48C8-86D3-9F8DA1441EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FC8B5-3482-49DF-A132-9950D56CAE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -816,14 +816,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="104.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
@@ -860,16 +860,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="类型编码填写错误" error="类型编码必填，且长度范围为1~16位" promptTitle="类型编码" prompt="必填，且编码长度范围1~16位" sqref="A2:A1048576" xr:uid="{90487BBE-D5BF-4B28-9FEC-5BCFE9BCBC39}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="类型编码填写错误" error="类型编码必填，且长度范围为1~16位" promptTitle="类型编码" prompt="必填，且编码长度范围1~16位" sqref="A3:A1048576" xr:uid="{90487BBE-D5BF-4B28-9FEC-5BCFE9BCBC39}">
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="类型名称填写错误" error="类型名称必填，且长度范围为1~16位" promptTitle="类型名称" prompt="必填，且名称长度范围1~16位" sqref="B2:B1048576" xr:uid="{4C011505-DA11-42C0-BF05-5A4CDCCFF129}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="类型名称填写错误" error="类型名称必填，且长度范围为1~16位" promptTitle="类型名称" prompt="必填，且名称长度范围1~16位" sqref="B3:B1048576" xr:uid="{4C011505-DA11-42C0-BF05-5A4CDCCFF129}">
       <formula1>1</formula1>
       <formula2>16</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配置模板" prompt="不输入或输入JSON格式字符串" sqref="C2:C1048576" xr:uid="{1944FBAE-537E-428C-A2AA-29DD68DB2F60}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="激活状态" prompt="必填" sqref="D1:D1048576" xr:uid="{C92E320B-AA11-4CBD-BC67-F17D62279349}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="配置模板" prompt="不输入或输入JSON格式字符串" sqref="C3:C1048576" xr:uid="{1944FBAE-537E-428C-A2AA-29DD68DB2F60}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="激活状态" prompt="必填" sqref="D1 D3:D1048576" xr:uid="{C92E320B-AA11-4CBD-BC67-F17D62279349}">
       <formula1>"未激活,已激活"</formula1>
     </dataValidation>
   </dataValidations>

--- a/server/src/main/resources/templates/template-dict-type.xlsx
+++ b/server/src/main/resources/templates/template-dict-type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510FC8B5-3482-49DF-A132-9950D56CAE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA66CEE0-217B-4611-BE9A-3100FFF9C2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="2610" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="3945" yWindow="4845" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -85,218 +85,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型备注</t>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型名称</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
+      <t>注意：表头携带“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">”表示该列必传。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类型编码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">同一应用下的字典类型编码不能重复（长度只能16位）。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>类型名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">对字典类型定义一个简短的名称。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  配置模板：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">JSON字符串，是对字典配置的一个默认模板，新创建的字典配置默认使用该内容。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>激活状态：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">只有激活的字典类型，其下的字典及字典配置才能使用。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 备注：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对类型进行简单备注信息。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>注意：表头携带“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">”表示该列必传。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类型编码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">同一应用下的字典类型编码不能重复（长度只能16位）。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>类型名称</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">对字典类型定义一个简短的名称。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  配置模板：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">JSON字符串，是对字典配置的一个默认模板，新创建的字典配置默认使用该内容。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>激活状态：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">只有激活的字典类型，其下的字典及字典配置才能使用。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 类型备注：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>对类型进行简单备注信息。</t>
-    </r>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +816,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -842,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -851,7 +851,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
